--- a/Python/XZHYtest.xlsx
+++ b/Python/XZHYtest.xlsx
@@ -19,134 +19,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用5-15个数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~`!@#$%^&amp;*()_+-={}|[]\:";'&lt;&gt;?,./    ~·！@#￥%……&amp;*（）——+-=｛｝|【】、：“；‘《》？，。、一二三四五六七八九十一二三四五六七八九十一12345678901234567890123abcdefghijklmnopqrstuvwxyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母,数字,空白与一般常用符号, 字数限制100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn2n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn2n3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn2n3nn2n32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn2n3nn2n32d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn2n3nn2n3ttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn2n3t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d34134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D34134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123456789012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1234567890123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d12345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_-_-</t>
+  </si>
+  <si>
+    <t>11234567890123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112345678901234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123456789012345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d@d.</t>
+  </si>
+  <si>
+    <t>d@d.aa</t>
+  </si>
+  <si>
+    <t>D@D.AA</t>
+  </si>
+  <si>
+    <t>f@d.cn</t>
+  </si>
+  <si>
+    <t>F@D.CN</t>
+  </si>
+  <si>
+    <t>d@y.com</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopq@y.com</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopdq@y.com</t>
+  </si>
+  <si>
+    <t>*仅可以使用英文字母,数字,句号,@,下划线和减号, 字数范围5-100</t>
+  </si>
+  <si>
+    <t>账号
+*仅可以使用英文字母,数字, 下划线和减号, 字数范围4-12</t>
+  </si>
+  <si>
+    <t>账号
+此账号可使用</t>
+  </si>
+  <si>
+    <t>账号
+*仅可以使用英文字母,数字, 下划线和减号, 字数范围4-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号
+此账号可使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母,空白, 字数范围2-50</t>
+  </si>
+  <si>
+    <t>*仅可以使用6-20个字母、数字、下划线和减号, 必须以字母开头</t>
+  </si>
+  <si>
+    <t>rt12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>P/F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huiyuan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号*仅可以使用英文字母,数字, 下划线和减号, 字数范围4-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号此帐号可使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">账号此账号已被使用 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n2n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn2n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn2n3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn2n3nn2n32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn2n3nn2n32d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn2n3nn2n3ttt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn2n3t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     BBB2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB2   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBB B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@#$234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@#$短发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@#$dfDWE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非打发打发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdafFDADF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34134556</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打发打发dfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等发达134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等发达fdfa413@#$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yutr4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_-_-</t>
-  </si>
-  <si>
-    <t>!!!!</t>
-  </si>
-  <si>
-    <t>@@@@</t>
-  </si>
-  <si>
-    <t>####</t>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[5]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[5]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[7]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[7]/div[2]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[9]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[9]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[10]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[10]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[11]/div[1]/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[11]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[1]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -204,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -213,11 +331,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,246 +639,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="49.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="59.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="61.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>134134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1123456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q10" s="1">
+        <v>1123456789</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
